--- a/project--111.xlsx
+++ b/project--111.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4417\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11730" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Diagrams" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,8 @@
     <sheet name="Test Groups" sheetId="3" r:id="rId3"/>
     <sheet name="Test Variables" sheetId="4" r:id="rId4"/>
     <sheet name="Equivalence Classes" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Boundary Values" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>Scenario Diagram for To Check Public Holidays</t>
   </si>
@@ -47,9 +53,6 @@
     <t>Log In</t>
   </si>
   <si>
-    <t>Click on Holidays</t>
-  </si>
-  <si>
     <t>Select Year</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
     <t xml:space="preserve">Search </t>
   </si>
   <si>
-    <t>Click on My Attendance</t>
-  </si>
-  <si>
     <t>Submit Date Range</t>
   </si>
   <si>
@@ -128,82 +128,16 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Select Full or Half</t>
-  </si>
-  <si>
     <t>1-2-3-4-5</t>
   </si>
   <si>
     <t>Select Leave Type</t>
   </si>
   <si>
-    <t>Select Member</t>
-  </si>
-  <si>
-    <t>Write Reason</t>
-  </si>
-  <si>
     <t>1-2-3-4-5-6</t>
   </si>
   <si>
-    <t>1-2-3-4-5-6-27</t>
-  </si>
-  <si>
-    <t>Compensatory</t>
-  </si>
-  <si>
-    <t>EMS Event</t>
-  </si>
-  <si>
-    <t>Floater Holiday</t>
-  </si>
-  <si>
     <t>1-2-3-4-5-6-7</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-11</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-13</t>
-  </si>
-  <si>
-    <t>Missed Attendace Scan</t>
-  </si>
-  <si>
-    <t>Probation</t>
-  </si>
-  <si>
-    <t>Probation Unpaid</t>
-  </si>
-  <si>
-    <t>Telecommutig_WFH</t>
-  </si>
-  <si>
-    <t>Work From Home</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-17</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-19</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-21</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-23</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply </t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-27-28</t>
   </si>
   <si>
     <t>Picture, Name, Phone Number, Blood Group, DOB, Facebook URL, About, Address</t>
@@ -251,6 +185,631 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">New Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (6-20), Case Insensitive, Space, Special Characters</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (6-20), Case Insensitive, Space, Special Characters</t>
+    </r>
+  </si>
+  <si>
+    <t>Boundry Variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (&lt;6 &amp; &gt;20), Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (&lt;6 &amp; &gt;20), Null</t>
+    </r>
+  </si>
+  <si>
+    <t>Scenario Diagram for My Profile</t>
+  </si>
+  <si>
+    <t>Dropdown List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Info </t>
+  </si>
+  <si>
+    <t>Enter Date</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Change Profile Picture</t>
+  </si>
+  <si>
+    <t>Select Picture From Device</t>
+  </si>
+  <si>
+    <t>Upload Picture</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Enter New Password</t>
+  </si>
+  <si>
+    <t>Confirm New Password</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>1-2-3-16</t>
+  </si>
+  <si>
+    <t>1-2-3-12</t>
+  </si>
+  <si>
+    <t>1-2-3-12-13</t>
+  </si>
+  <si>
+    <t>1-2-3-12-13-14</t>
+  </si>
+  <si>
+    <t>1-2-3-12-13-14-15</t>
+  </si>
+  <si>
+    <t>1-2-3-4-11</t>
+  </si>
+  <si>
+    <t>1-2-3-4-8</t>
+  </si>
+  <si>
+    <t>1-2-3-4-8-9</t>
+  </si>
+  <si>
+    <t>1-2-3-4-8-9-10</t>
+  </si>
+  <si>
+    <t>Apply Leave for Compensatory</t>
+  </si>
+  <si>
+    <t>Apply Leave for EMS Event</t>
+  </si>
+  <si>
+    <t>Apply Leave for Floater Holiday</t>
+  </si>
+  <si>
+    <t>Apply Leave for Missed Attendace Scan</t>
+  </si>
+  <si>
+    <t>Apply Leave for Probation</t>
+  </si>
+  <si>
+    <t>Apply Leave for Probation Unpaid</t>
+  </si>
+  <si>
+    <t>Apply Leave for Work From Home</t>
+  </si>
+  <si>
+    <t>Apply Leave forTelecommutig_WFH</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-25-26-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-23-24-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-21-22-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-17-18-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-19-20-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-13-14-15-16-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-11-12-27-28-29</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6-7-8-9-10-27-28-29</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {3,4,5,49,50,51}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {5,6,7,19,20,21}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {5,6,7,19,20,21}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {5,6,7,19,20,21}</t>
+    </r>
+  </si>
+  <si>
+    <t>Equivalence Classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date
+Full/Half : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Leave Type
+Backup Member
+Reason</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date
+Full/Half : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Full or Half</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Leave Type
+Backup Member
+Reason</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Picture : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size &lt;= 2MB, only Jpg or png Format</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Strings (3-40), Case Insensitive, Space</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Phone Number : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11 Digit Number, Registered, Not Used Before</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Blood Group : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphabets (only A,B,O) , Special Characters (only + -),  Length (2-3)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DOB :
+Facebook URL :
+About : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (1-50), Case Insensitive, Space, Special Characters</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Address :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (10-90), #, -, Dot, Comma, Space</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Picture : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size &gt; 2MB, Format other than jpg and png, Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Name : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strings (&lt;3 &amp; &gt;40), Special Characters, Numbers, Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Phone Number : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numbers (&lt;11 &amp; &gt;11), Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Blood Group : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphabets (other than A,B,O) , Special Characters (other than + -),  Length (&lt;2  &amp; &gt;3), Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DOB
+Facebook URL
+About : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (&lt;1 &amp; &gt;50), Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Address : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (&lt;10 &amp; &gt;90), All Other Special Characters, Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (&lt;4 &amp; &gt;50), Invalid Format, All Other Special Characters, Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumeric (&lt;6 &amp; &gt;20), Weak Password, Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Email :</t>
     </r>
     <r>
@@ -283,23 +842,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Alphanumeric (6-20), Case Insensitive, Space, Special Characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Picture :
-Name :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Strings (3-40), Case Insensitive, Space</t>
+      <t xml:space="preserve"> Alphanumeric (6-20), Case Insensitive, Space, Special Characters, Strong Password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Picture
+Name  : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
     </r>
     <r>
       <rPr>
@@ -310,18 +869,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {2,3,4,,39,40,41}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-Phone Number : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11 Digit Number, Registered, Not Used Before</t>
+DOB
+About : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {0,1,2,49,50,51}</t>
     </r>
     <r>
       <rPr>
@@ -333,36 +914,45 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Blood Group :
-DOB :
-Facebook URL :
-About :
-Address :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (10-90), #, -, Dot, Comma, Space</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">New Password : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (6-20), Case Insensitive, Space, Special Characters</t>
+Address :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length = {9,10,11,89,90,91}</t>
+    </r>
+  </si>
+  <si>
+    <t>Picture
+Name
+DOB
+About
+Address</t>
+  </si>
+  <si>
+    <t>Date
+Backup Member
+Reason</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Year
+Entries : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numbers only 10,25,50,100</t>
     </r>
     <r>
       <rPr>
@@ -374,32 +964,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Confirm Password : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (6-20), Case Insensitive, Space, Special Characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Email : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (&lt;4 and &gt;50), Invalid Format, All Other Special Characters, Null</t>
+Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date Range : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MM/DD/YYYY-MM/DD/YYYY</t>
     </r>
     <r>
       <rPr>
@@ -411,23 +991,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Password :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Picture
-Name : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Strings (&lt;3 and &gt;40), Special Characters, Numbers, Null</t>
+Entries :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Numbers only 10,25,50,100</t>
     </r>
     <r>
       <rPr>
@@ -439,90 +1013,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Phone Number : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Numbers (&lt;11 and &gt;11), Null</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Blood Group
-DOB
-Facebook URL
-About
-Address : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (&lt;10 and &gt;90), All Other Special Characters, Null</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">New Password : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (&lt;6 and &gt;20), Null</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Confirm Password : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumeric (&lt;6 and &gt;20), Null</t>
-    </r>
-  </si>
-  <si>
-    <t>Boundry Variables</t>
+Search</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +1065,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -674,11 +1178,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -707,16 +1261,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -766,16 +1311,53 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -828,23 +1410,28 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1022,27 +1609,251 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1061,16 +1872,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>162884</xdr:colOff>
+      <xdr:colOff>105734</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>20059</xdr:rowOff>
+      <xdr:rowOff>1009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1093,7 +1904,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="10506075"/>
+          <a:off x="7867650" y="10487025"/>
           <a:ext cx="6868484" cy="7230484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1106,15 +1917,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>553200</xdr:colOff>
+      <xdr:colOff>543675</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>153373</xdr:rowOff>
+      <xdr:rowOff>134323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1137,7 +1948,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="10515600"/>
+          <a:off x="1266825" y="10496550"/>
           <a:ext cx="5372850" cy="6973273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1183,6 +1994,50 @@
         <a:xfrm>
           <a:off x="8524875" y="609600"/>
           <a:ext cx="4639322" cy="9173855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>115270</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="581025"/>
+          <a:ext cx="6954220" cy="6744641"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,19 +2099,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table289" displayName="Table289" ref="B12:C29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="B12:C29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B2:C19" totalsRowShown="0" headerRowDxfId="35">
+  <autoFilter ref="B2:C19"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Test Groups" dataDxfId="24"/>
-    <tableColumn id="2" name="Directions" dataDxfId="23"/>
+    <tableColumn id="1" name="Test Groups" dataDxfId="34"/>
+    <tableColumn id="2" name="Directions" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table2810" displayName="Table2810" ref="G14:H19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="G14:H19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table28981213" displayName="Table28981213" ref="B23:C35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="B23:C35"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Test Groups" dataDxfId="27"/>
+    <tableColumn id="2" name="Directions" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table281014" displayName="Table281014" ref="B39:C44" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="B39:C44"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Test Groups" dataDxfId="20"/>
     <tableColumn id="2" name="Directions" dataDxfId="19"/>
@@ -1265,9 +2131,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table25711" displayName="Table25711" ref="G23:H28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="G23:H28"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table2571115" displayName="Table2571115" ref="B48:C53" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="B48:C53"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Test Groups" dataDxfId="16"/>
     <tableColumn id="2" name="Directions" dataDxfId="15"/>
@@ -1276,7 +2142,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:B10" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A3:B10"/>
   <tableColumns count="2">
@@ -1287,14 +2153,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table52" displayName="Table52" ref="B3:E10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table52" displayName="Table52" ref="B3:E10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B3:E10"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tabs" dataDxfId="4"/>
-    <tableColumn id="2" name="Test Variables" dataDxfId="3"/>
-    <tableColumn id="3" name="Valid" dataDxfId="2"/>
-    <tableColumn id="4" name="Invalid" dataDxfId="1"/>
+    <tableColumn id="1" name="Tabs" dataDxfId="3"/>
+    <tableColumn id="2" name="Test Variables" dataDxfId="2"/>
+    <tableColumn id="3" name="Valid" dataDxfId="1"/>
+    <tableColumn id="4" name="Invalid" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1343,7 +2209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1378,7 +2244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1555,7 +2421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1565,54 +2431,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X55"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O3" s="14" t="s">
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="O3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+    </row>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="N55" s="14" t="s">
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="N55" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C55:K55"/>
     <mergeCell ref="N55:X55"/>
     <mergeCell ref="O3:U3"/>
+    <mergeCell ref="D3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1623,23 +2508,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1652,299 +2537,506 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:H37"/>
+  <dimension ref="B1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C22" s="49"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C23" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C24" s="41">
         <v>1</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1" t="s">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="48"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="C48" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="C53" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1954,7 +3046,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,66 +3058,66 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2038,133 +3130,142 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E10"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="80.140625" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" customWidth="1"/>
+    <col min="5" max="5" width="96" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="49"/>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>66</v>
+      <c r="C6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="C9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>64</v>
+      <c r="C10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2177,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,91 +3290,119 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="C5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>66</v>
+      <c r="C6" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="C9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>64</v>
+      <c r="C10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
